--- a/src/uploads/Bitacora.xlsx
+++ b/src/uploads/Bitacora.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>BITÁCORA DE DEPARTAMENTO DE TECNOLOGÍA.</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Falla</t>
   </si>
   <si>
-    <t>uuuu</t>
+    <t>Falla de enlace</t>
   </si>
   <si>
     <t>Administrador</t>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Drivers</t>
-  </si>
-  <si>
-    <t>Falla de enlace</t>
   </si>
 </sst>
 </file>
@@ -266,7 +263,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>23</v>
